--- a/medicine/Enfance/Alice_et_le_Symbole_grec/Alice_et_le_Symbole_grec.xlsx
+++ b/medicine/Enfance/Alice_et_le_Symbole_grec/Alice_et_le_Symbole_grec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et le Symbole grec (titre original : The Greek Symbol Mystery) est le 60e roman[1] de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'autrice de ce roman est Nancy Axelrad.
+Alice et le Symbole grec (titre original : The Greek Symbol Mystery) est le 60e roman de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'autrice de ce roman est Nancy Axelrad.
 Aux États-Unis, le roman a été publié pour la première fois en 1981 par Wanderer Books (filiale de Simon &amp; Schuster). En France, il est paru pour la première fois en 1983 chez Hachette Jeunesse dans la collection « Masque Jeunesse » sous le no 13.
 Le roman évoque une enquête d'Alice relative à la recherche de trafiquants d'art en Grèce. Pour cela elle recherche ceux qui utilisent un mystérieux symbole grec composé de deux serpents entrelacés.
 </t>
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est rédigé sur la base de l'édition française de 1983. Le roman comprend vingt chapitres.
 Mise en place de l'intrigue
@@ -552,7 +566,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy : héroïne de la série, fille de l'avocat James Roy, orpheline de mère.
@@ -597,7 +613,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1983 : éditions Hachette Jeunesse, collection « Masque Jeunesse » no 13, format poche souple (français, version originale). Illustré par Jean Sidobre. Texte français de Lisa Rosenbaum. 20 chapitres. 191 p. 
 1988 : éditions Hachette Jeunesse, collection « Bibliothèque verte » no 444, format poche souple (français, version originale). Illustré par Jean Sidobre. Texte français de Lisa Rosenbaum. 20 chapitres. 190 p. </t>
